--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
@@ -43,10 +43,13 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>however</t>
+    <t>poor</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -55,60 +58,54 @@
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>small</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
@@ -118,69 +115,69 @@
     <t>ok</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>1</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
         <v>73</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.78125</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="L6">
         <v>60</v>
       </c>
-      <c r="K6">
-        <v>0.5849056603773585</v>
-      </c>
-      <c r="L6">
-        <v>31</v>
-      </c>
       <c r="M6">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7281553398058253</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.46875</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6619718309859155</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.4057971014492754</v>
+        <v>0.484375</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.3245901639344262</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="L9">
-        <v>396</v>
+        <v>25</v>
       </c>
       <c r="M9">
-        <v>396</v>
+        <v>25</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>824</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6216216216216216</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.2955523672883787</v>
+        <v>0.3467213114754099</v>
       </c>
       <c r="L10">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="M10">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>491</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5952380952380952</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.2800829875518672</v>
+        <v>0.3055954088952654</v>
       </c>
       <c r="L11">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="M11">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>347</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5798319327731093</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.2083333333333333</v>
+        <v>0.2427385892116183</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>95</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.1867469879518072</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.1865443425076453</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4888888888888889</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.1322751322751323</v>
+        <v>0.1681957186544343</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>164</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4698795180722892</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.1004016064257028</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>224</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1362,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4608695652173913</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C17">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.08150744960560911</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1048</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1430,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.03828682673588579</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1482</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,7 +1480,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L19">
+        <v>67</v>
+      </c>
+      <c r="M19">
+        <v>67</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1474</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4251968503937008</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4074074074074074</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1540,13 +1564,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1558,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1566,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.390625</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -1584,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1592,7 +1616,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3833333333333334</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1610,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1618,13 +1642,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3770491803278688</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1636,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1644,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3483146067415731</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1662,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1670,13 +1694,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2920792079207921</v>
+        <v>0.28125</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1688,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>143</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1696,13 +1720,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.28125</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1714,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1722,13 +1746,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2511848341232227</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1740,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1774,13 +1798,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2214285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1792,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1800,13 +1824,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2136752136752137</v>
+        <v>0.185</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1818,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>92</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1826,13 +1850,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1949152542372881</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1844,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>95</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1852,13 +1876,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1847133757961783</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1870,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>128</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1878,25 +1902,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.18</v>
+        <v>0.1679049034175334</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>164</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1904,13 +1928,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1780415430267062</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1922,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>554</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1930,13 +1954,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1708860759493671</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C37">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1948,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1956,13 +1980,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1630434782608696</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1974,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>231</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1982,25 +2006,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1587301587301587</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>265</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2008,13 +2032,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.145374449339207</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2026,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>388</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2034,25 +2058,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1354466858789625</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C41">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2060,13 +2084,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1308411214953271</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2078,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2086,25 +2110,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.09677419354838709</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="C43">
         <v>24</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2112,13 +2136,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09363295880149813</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2130,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>242</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2138,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.09315068493150686</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2156,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>331</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2164,13 +2188,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.06578947368421052</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2182,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>568</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2190,25 +2214,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06264501160092807</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F47">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2216,25 +2240,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.058165548098434</v>
+        <v>0.0534521158129176</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2242,51 +2266,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.03516819571865443</v>
+        <v>0.03156565656565657</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.03164556962025317</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>29</v>
-      </c>
-      <c r="E50">
-        <v>0.14</v>
-      </c>
-      <c r="F50">
-        <v>0.86</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
